--- a/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 млрсч пок зпф.xlsx
+++ b/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 млрсч пок зпф.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\22,05,25 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\22,05,25 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398221EC-A278-42E6-B8AA-6359A786D4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84D2A76-7A4C-42EA-B42E-3C2CFB0E59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AM$74</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -589,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -615,7 +607,6 @@
     <xf numFmtId="2" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -924,10 +915,10 @@
   <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1602,7 @@
       <c r="AE7" s="1">
         <v>3</v>
       </c>
-      <c r="AF7" s="27" t="s">
+      <c r="AF7" s="26" t="s">
         <v>69</v>
       </c>
       <c r="AG7" s="1">
@@ -1696,7 +1687,7 @@
         <v>58.6</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" ref="P7:P9" si="6">14*O8-N8-F8</f>
+        <f t="shared" ref="P8:P9" si="6">14*O8-N8-F8</f>
         <v>359.4</v>
       </c>
       <c r="Q8" s="5">
@@ -3300,7 +3291,7 @@
         <v>36.260000000000005</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" ref="P22:P25" si="8">14*O22-N22-F22</f>
+        <f t="shared" ref="P22" si="8">14*O22-N22-F22</f>
         <v>333.74000000000012</v>
       </c>
       <c r="Q22" s="5">
@@ -3474,7 +3465,7 @@
       <c r="AE23" s="1">
         <v>1</v>
       </c>
-      <c r="AF23" s="27" t="s">
+      <c r="AF23" s="26" t="s">
         <v>69</v>
       </c>
       <c r="AG23" s="1">
@@ -3597,7 +3588,7 @@
       <c r="AE24" s="1">
         <v>1</v>
       </c>
-      <c r="AF24" s="27" t="s">
+      <c r="AF24" s="26" t="s">
         <v>69</v>
       </c>
       <c r="AG24" s="1">
@@ -5024,18 +5015,18 @@
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1">
-        <f>G36*P36</f>
+        <f t="shared" ref="AG36:AG42" si="13">G36*P36</f>
         <v>73.64</v>
       </c>
       <c r="AH36" s="7">
         <v>8</v>
       </c>
       <c r="AI36" s="10">
-        <f>MROUND(P36, AH36*AK36)/AH36</f>
+        <f t="shared" ref="AI36:AI42" si="14">MROUND(P36, AH36*AK36)/AH36</f>
         <v>12</v>
       </c>
       <c r="AJ36" s="1">
-        <f>AI36*AH36*G36</f>
+        <f t="shared" ref="AJ36:AJ42" si="15">AI36*AH36*G36</f>
         <v>67.199999999999989</v>
       </c>
       <c r="AK36" s="1">
@@ -5045,7 +5036,7 @@
         <v>84</v>
       </c>
       <c r="AM36" s="10">
-        <f t="shared" ref="AM36:AM58" si="13">AI36/AL36</f>
+        <f t="shared" ref="AM36:AM58" si="16">AI36/AL36</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN36" s="1"/>
@@ -5154,18 +5145,18 @@
       </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1">
-        <f>G37*P37</f>
+        <f t="shared" si="13"/>
         <v>114.94</v>
       </c>
       <c r="AH37" s="7">
         <v>8</v>
       </c>
       <c r="AI37" s="10">
-        <f>MROUND(P37, AH37*AK37)/AH37</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="AJ37" s="1">
-        <f>AI37*AH37*G37</f>
+        <f t="shared" si="15"/>
         <v>134.39999999999998</v>
       </c>
       <c r="AK37" s="1">
@@ -5175,7 +5166,7 @@
         <v>84</v>
       </c>
       <c r="AM37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN37" s="1"/>
@@ -5222,7 +5213,7 @@
         <v>110</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" ref="K38:K69" si="14">E38-J38</f>
+        <f t="shared" ref="K38:K69" si="17">E38-J38</f>
         <v>0</v>
       </c>
       <c r="L38" s="1"/>
@@ -5284,18 +5275,18 @@
       </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1">
-        <f>G38*P38</f>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="AH38" s="7">
         <v>8</v>
       </c>
       <c r="AI38" s="10">
-        <f>MROUND(P38, AH38*AK38)/AH38</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="AJ38" s="1">
-        <f>AI38*AH38*G38</f>
+        <f t="shared" si="15"/>
         <v>67.199999999999989</v>
       </c>
       <c r="AK38" s="1">
@@ -5305,7 +5296,7 @@
         <v>84</v>
       </c>
       <c r="AM38" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN38" s="1"/>
@@ -5352,7 +5343,7 @@
         <v>190</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="L39" s="1"/>
@@ -5414,18 +5405,18 @@
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1">
-        <f>G39*P39</f>
+        <f t="shared" si="13"/>
         <v>97.579999999999984</v>
       </c>
       <c r="AH39" s="7">
         <v>10</v>
       </c>
       <c r="AI39" s="10">
-        <f>MROUND(P39, AH39*AK39)/AH39</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="AJ39" s="1">
-        <f>AI39*AH39*G39</f>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="AK39" s="1">
@@ -5435,7 +5426,7 @@
         <v>84</v>
       </c>
       <c r="AM39" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN39" s="1"/>
@@ -5482,7 +5473,7 @@
         <v>114</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-10</v>
       </c>
       <c r="L40" s="1"/>
@@ -5541,18 +5532,18 @@
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1">
-        <f>G40*P40</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH40" s="7">
         <v>16</v>
       </c>
       <c r="AI40" s="10">
-        <f>MROUND(P40, AH40*AK40)/AH40</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <f>AI40*AH40*G40</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK40" s="1">
@@ -5562,7 +5553,7 @@
         <v>84</v>
       </c>
       <c r="AM40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN40" s="1"/>
@@ -5609,7 +5600,7 @@
         <v>78</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L41" s="1"/>
@@ -5671,18 +5662,18 @@
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1">
-        <f>G41*P41</f>
+        <f t="shared" si="13"/>
         <v>48.58</v>
       </c>
       <c r="AH41" s="7">
         <v>10</v>
       </c>
       <c r="AI41" s="10">
-        <f>MROUND(P41, AH41*AK41)/AH41</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="AJ41" s="1">
-        <f>AI41*AH41*G41</f>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="AK41" s="1">
@@ -5692,7 +5683,7 @@
         <v>84</v>
       </c>
       <c r="AM41" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN41" s="1"/>
@@ -5739,7 +5730,7 @@
         <v>205</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-6</v>
       </c>
       <c r="L42" s="1"/>
@@ -5801,18 +5792,18 @@
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1">
-        <f>G42*P42</f>
+        <f t="shared" si="13"/>
         <v>138.03999999999994</v>
       </c>
       <c r="AH42" s="7">
         <v>10</v>
       </c>
       <c r="AI42" s="10">
-        <f>MROUND(P42, AH42*AK42)/AH42</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="AJ42" s="1">
-        <f>AI42*AH42*G42</f>
+        <f t="shared" si="15"/>
         <v>168</v>
       </c>
       <c r="AK42" s="1">
@@ -5822,7 +5813,7 @@
         <v>84</v>
       </c>
       <c r="AM42" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN42" s="1"/>
@@ -5869,7 +5860,7 @@
         <v>61</v>
       </c>
       <c r="K43" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-4</v>
       </c>
       <c r="L43" s="21"/>
@@ -5983,7 +5974,7 @@
         <v>40</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-8</v>
       </c>
       <c r="L44" s="1"/>
@@ -6044,18 +6035,18 @@
         <v>45</v>
       </c>
       <c r="AG44" s="1">
-        <f>G44*P44</f>
+        <f t="shared" ref="AG44:AG58" si="18">G44*P44</f>
         <v>0</v>
       </c>
       <c r="AH44" s="7">
         <v>10</v>
       </c>
       <c r="AI44" s="10">
-        <f>MROUND(P44, AH44*AK44)/AH44</f>
+        <f t="shared" ref="AI44:AI58" si="19">MROUND(P44, AH44*AK44)/AH44</f>
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <f>AI44*AH44*G44</f>
+        <f t="shared" ref="AJ44:AJ58" si="20">AI44*AH44*G44</f>
         <v>0</v>
       </c>
       <c r="AK44" s="1">
@@ -6065,7 +6056,7 @@
         <v>84</v>
       </c>
       <c r="AM44" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN44" s="1"/>
@@ -6112,7 +6103,7 @@
         <v>502</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L45" s="1"/>
@@ -6173,18 +6164,18 @@
         <v>53</v>
       </c>
       <c r="AG45" s="1">
-        <f>G45*P45</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH45" s="7">
         <v>5</v>
       </c>
       <c r="AI45" s="10">
-        <f>MROUND(P45, AH45*AK45)/AH45</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="1">
-        <f>AI45*AH45*G45</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK45" s="1">
@@ -6194,7 +6185,7 @@
         <v>144</v>
       </c>
       <c r="AM45" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN45" s="1"/>
@@ -6241,7 +6232,7 @@
         <v>159</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L46" s="1"/>
@@ -6300,18 +6291,18 @@
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1">
-        <f>G46*P46</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH46" s="7">
         <v>16</v>
       </c>
       <c r="AI46" s="10">
-        <f>MROUND(P46, AH46*AK46)/AH46</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <f>AI46*AH46*G46</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK46" s="1">
@@ -6321,7 +6312,7 @@
         <v>84</v>
       </c>
       <c r="AM46" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN46" s="1"/>
@@ -6368,7 +6359,7 @@
         <v>524</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L47" s="1"/>
@@ -6381,7 +6372,7 @@
         <v>104.8</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" ref="P44:P58" si="15">14*O47-N47-F47</f>
+        <f t="shared" ref="P47:P58" si="21">14*O47-N47-F47</f>
         <v>72.200000000000045</v>
       </c>
       <c r="Q47" s="5">
@@ -6432,18 +6423,18 @@
         <v>75</v>
       </c>
       <c r="AG47" s="1">
-        <f>G47*P47</f>
+        <f t="shared" si="18"/>
         <v>50.540000000000028</v>
       </c>
       <c r="AH47" s="7">
         <v>10</v>
       </c>
       <c r="AI47" s="10">
-        <f>MROUND(P47, AH47*AK47)/AH47</f>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="AJ47" s="1">
-        <f>AI47*AH47*G47</f>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="AK47" s="1">
@@ -6453,7 +6444,7 @@
         <v>84</v>
       </c>
       <c r="AM47" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN47" s="1"/>
@@ -6500,7 +6491,7 @@
         <v>188</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L48" s="1"/>
@@ -6562,18 +6553,18 @@
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1">
-        <f>G48*P48</f>
+        <f t="shared" si="18"/>
         <v>130.72</v>
       </c>
       <c r="AH48" s="7">
         <v>16</v>
       </c>
       <c r="AI48" s="10">
-        <f>MROUND(P48, AH48*AK48)/AH48</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="AJ48" s="1">
-        <f>AI48*AH48*G48</f>
+        <f t="shared" si="20"/>
         <v>153.60000000000002</v>
       </c>
       <c r="AK48" s="1">
@@ -6583,7 +6574,7 @@
         <v>84</v>
       </c>
       <c r="AM48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN48" s="1"/>
@@ -6630,7 +6621,7 @@
         <v>918</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L49" s="1"/>
@@ -6643,7 +6634,7 @@
         <v>184</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>869</v>
       </c>
       <c r="Q49" s="5">
@@ -6694,18 +6685,18 @@
         <v>75</v>
       </c>
       <c r="AG49" s="1">
-        <f>G49*P49</f>
+        <f t="shared" si="18"/>
         <v>608.29999999999995</v>
       </c>
       <c r="AH49" s="7">
         <v>10</v>
       </c>
       <c r="AI49" s="10">
-        <f>MROUND(P49, AH49*AK49)/AH49</f>
+        <f t="shared" si="19"/>
         <v>84</v>
       </c>
       <c r="AJ49" s="1">
-        <f>AI49*AH49*G49</f>
+        <f t="shared" si="20"/>
         <v>588</v>
       </c>
       <c r="AK49" s="1">
@@ -6715,7 +6706,7 @@
         <v>84</v>
       </c>
       <c r="AM49" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AN49" s="1"/>
@@ -6762,7 +6753,7 @@
         <v>243</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L50" s="1"/>
@@ -6775,7 +6766,7 @@
         <v>48.6</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>310.39999999999998</v>
       </c>
       <c r="Q50" s="5">
@@ -6824,18 +6815,18 @@
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1">
-        <f>G50*P50</f>
+        <f t="shared" si="18"/>
         <v>217.27999999999997</v>
       </c>
       <c r="AH50" s="7">
         <v>10</v>
       </c>
       <c r="AI50" s="10">
-        <f>MROUND(P50, AH50*AK50)/AH50</f>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="AJ50" s="1">
-        <f>AI50*AH50*G50</f>
+        <f t="shared" si="20"/>
         <v>251.99999999999997</v>
       </c>
       <c r="AK50" s="1">
@@ -6845,7 +6836,7 @@
         <v>84</v>
       </c>
       <c r="AM50" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="AN50" s="1"/>
@@ -6890,7 +6881,7 @@
         <v>16</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L51" s="1"/>
@@ -6949,18 +6940,18 @@
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1">
-        <f>G51*P51</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH51" s="7">
         <v>8</v>
       </c>
       <c r="AI51" s="10">
-        <f>MROUND(P51, AH51*AK51)/AH51</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <f>AI51*AH51*G51</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK51" s="1">
@@ -6970,7 +6961,7 @@
         <v>84</v>
       </c>
       <c r="AM51" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN51" s="1"/>
@@ -7017,7 +7008,7 @@
         <v>21</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="L52" s="1"/>
@@ -7076,18 +7067,18 @@
       </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1">
-        <f>G52*P52</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH52" s="7">
         <v>8</v>
       </c>
       <c r="AI52" s="10">
-        <f>MROUND(P52, AH52*AK52)/AH52</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <f>AI52*AH52*G52</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK52" s="1">
@@ -7097,7 +7088,7 @@
         <v>84</v>
       </c>
       <c r="AM52" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN52" s="1"/>
@@ -7142,7 +7133,7 @@
         <v>9</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L53" s="1"/>
@@ -7199,22 +7190,22 @@
       <c r="AE53" s="1">
         <v>4.2</v>
       </c>
-      <c r="AF53" s="27" t="s">
+      <c r="AF53" s="26" t="s">
         <v>69</v>
       </c>
       <c r="AG53" s="1">
-        <f>G53*P53</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH53" s="7">
         <v>8</v>
       </c>
       <c r="AI53" s="10">
-        <f>MROUND(P53, AH53*AK53)/AH53</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <f>AI53*AH53*G53</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK53" s="1">
@@ -7224,7 +7215,7 @@
         <v>84</v>
       </c>
       <c r="AM53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN53" s="1"/>
@@ -7271,7 +7262,7 @@
         <v>321</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L54" s="1"/>
@@ -7284,7 +7275,7 @@
         <v>64.2</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>135.80000000000007</v>
       </c>
       <c r="Q54" s="5">
@@ -7335,18 +7326,18 @@
         <v>53</v>
       </c>
       <c r="AG54" s="1">
-        <f>G54*P54</f>
+        <f t="shared" si="18"/>
         <v>95.060000000000045</v>
       </c>
       <c r="AH54" s="7">
         <v>8</v>
       </c>
       <c r="AI54" s="10">
-        <f>MROUND(P54, AH54*AK54)/AH54</f>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="AJ54" s="1">
-        <f>AI54*AH54*G54</f>
+        <f t="shared" si="20"/>
         <v>67.199999999999989</v>
       </c>
       <c r="AK54" s="1">
@@ -7356,7 +7347,7 @@
         <v>84</v>
       </c>
       <c r="AM54" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN54" s="1"/>
@@ -7403,7 +7394,7 @@
         <v>144</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L55" s="1"/>
@@ -7460,22 +7451,22 @@
       <c r="AE55" s="1">
         <v>38</v>
       </c>
-      <c r="AF55" s="26" t="s">
+      <c r="AF55" s="25" t="s">
         <v>53</v>
       </c>
       <c r="AG55" s="1">
-        <f>G55*P55</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH55" s="7">
         <v>8</v>
       </c>
       <c r="AI55" s="10">
-        <f>MROUND(P55, AH55*AK55)/AH55</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <f>AI55*AH55*G55</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK55" s="1">
@@ -7485,7 +7476,7 @@
         <v>84</v>
       </c>
       <c r="AM55" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN55" s="1"/>
@@ -7532,7 +7523,7 @@
         <v>189</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="L56" s="1"/>
@@ -7545,7 +7536,7 @@
         <v>37.6</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>211.39999999999998</v>
       </c>
       <c r="Q56" s="5">
@@ -7596,18 +7587,18 @@
         <v>53</v>
       </c>
       <c r="AG56" s="1">
-        <f>G56*P56</f>
+        <f t="shared" si="18"/>
         <v>190.26</v>
       </c>
       <c r="AH56" s="7">
         <v>8</v>
       </c>
       <c r="AI56" s="10">
-        <f>MROUND(P56, AH56*AK56)/AH56</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="AJ56" s="1">
-        <f>AI56*AH56*G56</f>
+        <f t="shared" si="20"/>
         <v>172.8</v>
       </c>
       <c r="AK56" s="1">
@@ -7617,7 +7608,7 @@
         <v>84</v>
       </c>
       <c r="AM56" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN56" s="1"/>
@@ -7664,7 +7655,7 @@
         <v>630</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L57" s="1"/>
@@ -7677,7 +7668,7 @@
         <v>126</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>329</v>
       </c>
       <c r="Q57" s="5">
@@ -7728,18 +7719,18 @@
         <v>53</v>
       </c>
       <c r="AG57" s="1">
-        <f>G57*P57</f>
+        <f t="shared" si="18"/>
         <v>329</v>
       </c>
       <c r="AH57" s="7">
         <v>5</v>
       </c>
       <c r="AI57" s="10">
-        <f>MROUND(P57, AH57*AK57)/AH57</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="AJ57" s="1">
-        <f>AI57*AH57*G57</f>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="AK57" s="1">
@@ -7749,7 +7740,7 @@
         <v>144</v>
       </c>
       <c r="AM57" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="AN57" s="1"/>
@@ -7796,7 +7787,7 @@
         <v>631</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="L58" s="1"/>
@@ -7809,7 +7800,7 @@
         <v>125.6</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>171.39999999999986</v>
       </c>
       <c r="Q58" s="5">
@@ -7860,18 +7851,18 @@
         <v>53</v>
       </c>
       <c r="AG58" s="1">
-        <f>G58*P58</f>
+        <f t="shared" si="18"/>
         <v>171.39999999999986</v>
       </c>
       <c r="AH58" s="7">
         <v>5</v>
       </c>
       <c r="AI58" s="10">
-        <f>MROUND(P58, AH58*AK58)/AH58</f>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="AJ58" s="1">
-        <f>AI58*AH58*G58</f>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="AK58" s="1">
@@ -7881,7 +7872,7 @@
         <v>84</v>
       </c>
       <c r="AM58" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="AN58" s="1"/>
@@ -7918,7 +7909,7 @@
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L59" s="21"/>
@@ -8020,7 +8011,7 @@
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L60" s="21"/>
@@ -8122,7 +8113,7 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L61" s="21"/>
@@ -8234,7 +8225,7 @@
         <v>67</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-11</v>
       </c>
       <c r="L62" s="1"/>
@@ -8248,7 +8239,7 @@
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5">
-        <f t="shared" ref="Q62:Q67" si="16">AH62*AI62</f>
+        <f t="shared" ref="Q62:Q67" si="22">AH62*AI62</f>
         <v>0</v>
       </c>
       <c r="R62" s="5"/>
@@ -8295,18 +8286,18 @@
         <v>111</v>
       </c>
       <c r="AG62" s="1">
-        <f>G62*P62</f>
+        <f t="shared" ref="AG62:AG67" si="23">G62*P62</f>
         <v>0</v>
       </c>
       <c r="AH62" s="7">
         <v>30</v>
       </c>
       <c r="AI62" s="10">
-        <f>MROUND(P62, AH62*AK62)/AH62</f>
+        <f t="shared" ref="AI62:AI67" si="24">MROUND(P62, AH62*AK62)/AH62</f>
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <f>AI62*AH62*G62</f>
+        <f t="shared" ref="AJ62:AJ67" si="25">AI62*AH62*G62</f>
         <v>0</v>
       </c>
       <c r="AK62" s="1">
@@ -8316,7 +8307,7 @@
         <v>126</v>
       </c>
       <c r="AM62" s="10">
-        <f t="shared" ref="AM62:AM67" si="17">AI62/AL62</f>
+        <f t="shared" ref="AM62:AM67" si="26">AI62/AL62</f>
         <v>0</v>
       </c>
       <c r="AN62" s="1"/>
@@ -8363,7 +8354,7 @@
         <v>737</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="L63" s="1"/>
@@ -8376,11 +8367,11 @@
         <v>147.19999999999999</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" ref="P62:P67" si="18">14*O63-N63-F63</f>
+        <f t="shared" ref="P63:P64" si="27">14*O63-N63-F63</f>
         <v>1201.7999999999997</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1176</v>
       </c>
       <c r="R63" s="5"/>
@@ -8427,18 +8418,18 @@
         <v>75</v>
       </c>
       <c r="AG63" s="1">
-        <f>G63*P63</f>
+        <f t="shared" si="23"/>
         <v>300.44999999999993</v>
       </c>
       <c r="AH63" s="7">
         <v>12</v>
       </c>
       <c r="AI63" s="10">
-        <f>MROUND(P63, AH63*AK63)/AH63</f>
+        <f t="shared" si="24"/>
         <v>98</v>
       </c>
       <c r="AJ63" s="1">
-        <f>AI63*AH63*G63</f>
+        <f t="shared" si="25"/>
         <v>294</v>
       </c>
       <c r="AK63" s="1">
@@ -8448,7 +8439,7 @@
         <v>70</v>
       </c>
       <c r="AM63" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1.4</v>
       </c>
       <c r="AN63" s="1"/>
@@ -8495,7 +8486,7 @@
         <v>198</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L64" s="1"/>
@@ -8508,11 +8499,11 @@
         <v>39.6</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>197.39999999999998</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>168</v>
       </c>
       <c r="R64" s="5"/>
@@ -8557,18 +8548,18 @@
       </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1">
-        <f>G64*P64</f>
+        <f t="shared" si="23"/>
         <v>49.349999999999994</v>
       </c>
       <c r="AH64" s="7">
         <v>12</v>
       </c>
       <c r="AI64" s="10">
-        <f>MROUND(P64, AH64*AK64)/AH64</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="AJ64" s="1">
-        <f>AI64*AH64*G64</f>
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="AK64" s="1">
@@ -8578,7 +8569,7 @@
         <v>70</v>
       </c>
       <c r="AM64" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="AN64" s="1"/>
@@ -8625,7 +8616,7 @@
         <v>738</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-12</v>
       </c>
       <c r="L65" s="1"/>
@@ -8642,7 +8633,7 @@
         <v>1253.5999999999999</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1176</v>
       </c>
       <c r="R65" s="5"/>
@@ -8687,18 +8678,18 @@
       </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1">
-        <f>G65*P65</f>
+        <f t="shared" si="23"/>
         <v>376.08</v>
       </c>
       <c r="AH65" s="7">
         <v>12</v>
       </c>
       <c r="AI65" s="10">
-        <f>MROUND(P65, AH65*AK65)/AH65</f>
+        <f t="shared" si="24"/>
         <v>98</v>
       </c>
       <c r="AJ65" s="1">
-        <f>AI65*AH65*G65</f>
+        <f t="shared" si="25"/>
         <v>352.8</v>
       </c>
       <c r="AK65" s="1">
@@ -8708,7 +8699,7 @@
         <v>70</v>
       </c>
       <c r="AM65" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1.4</v>
       </c>
       <c r="AN65" s="1"/>
@@ -8755,7 +8746,7 @@
         <v>146.19999999999999</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-7.5999999999999943</v>
       </c>
       <c r="L66" s="1"/>
@@ -8769,7 +8760,7 @@
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R66" s="5"/>
@@ -8814,18 +8805,18 @@
       </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1">
-        <f>G66*P66</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AH66" s="7">
         <v>1.8</v>
       </c>
       <c r="AI66" s="10">
-        <f>MROUND(P66, AH66*AK66)/AH66</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <f>AI66*AH66*G66</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AK66" s="1">
@@ -8835,7 +8826,7 @@
         <v>234</v>
       </c>
       <c r="AM66" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AN66" s="1"/>
@@ -8882,7 +8873,7 @@
         <v>622</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="L67" s="1"/>
@@ -8899,7 +8890,7 @@
         <v>1082.3999999999999</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1008</v>
       </c>
       <c r="R67" s="5"/>
@@ -8944,18 +8935,18 @@
       </c>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1">
-        <f>G67*P67</f>
+        <f t="shared" si="23"/>
         <v>324.71999999999997</v>
       </c>
       <c r="AH67" s="7">
         <v>12</v>
       </c>
       <c r="AI67" s="10">
-        <f>MROUND(P67, AH67*AK67)/AH67</f>
+        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="AJ67" s="1">
-        <f>AI67*AH67*G67</f>
+        <f t="shared" si="25"/>
         <v>302.39999999999998</v>
       </c>
       <c r="AK67" s="1">
@@ -8965,7 +8956,7 @@
         <v>70</v>
       </c>
       <c r="AM67" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1.2</v>
       </c>
       <c r="AN67" s="1"/>
@@ -9002,7 +8993,7 @@
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L68" s="21"/>
@@ -9083,7 +9074,7 @@
       <c r="AX68" s="1"/>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -9110,7 +9101,7 @@
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="L69" s="1"/>
@@ -9124,7 +9115,7 @@
       </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5">
-        <f t="shared" ref="Q69:Q74" si="19">AH69*AI69</f>
+        <f t="shared" ref="Q69:Q74" si="28">AH69*AI69</f>
         <v>0</v>
       </c>
       <c r="R69" s="5"/>
@@ -9171,18 +9162,18 @@
         <v>120</v>
       </c>
       <c r="AG69" s="1">
-        <f>G69*P69</f>
+        <f t="shared" ref="AG69:AG74" si="29">G69*P69</f>
         <v>0</v>
       </c>
       <c r="AH69" s="7">
         <v>8</v>
       </c>
       <c r="AI69" s="10">
-        <f>MROUND(P69, AH69*AK69)/AH69</f>
+        <f t="shared" ref="AI69:AI74" si="30">MROUND(P69, AH69*AK69)/AH69</f>
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <f>AI69*AH69*G69</f>
+        <f t="shared" ref="AJ69:AJ74" si="31">AI69*AH69*G69</f>
         <v>0</v>
       </c>
       <c r="AK69" s="1">
@@ -9192,7 +9183,7 @@
         <v>70</v>
       </c>
       <c r="AM69" s="10">
-        <f t="shared" ref="AM69:AM74" si="20">AI69/AL69</f>
+        <f t="shared" ref="AM69:AM74" si="32">AI69/AL69</f>
         <v>0</v>
       </c>
       <c r="AN69" s="1"/>
@@ -9239,7 +9230,7 @@
         <v>816</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" ref="K70:K74" si="21">E70-J70</f>
+        <f t="shared" ref="K70:K74" si="33">E70-J70</f>
         <v>6</v>
       </c>
       <c r="L70" s="1"/>
@@ -9252,11 +9243,11 @@
         <v>164.4</v>
       </c>
       <c r="P70" s="5">
-        <f t="shared" ref="P69:P74" si="22">14*O70-N70-F70</f>
+        <f t="shared" ref="P70:P74" si="34">14*O70-N70-F70</f>
         <v>972.59999999999991</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1008</v>
       </c>
       <c r="R70" s="5"/>
@@ -9301,18 +9292,18 @@
       </c>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1">
-        <f>G70*P70</f>
+        <f t="shared" si="29"/>
         <v>243.14999999999998</v>
       </c>
       <c r="AH70" s="7">
         <v>12</v>
       </c>
       <c r="AI70" s="10">
-        <f>MROUND(P70, AH70*AK70)/AH70</f>
+        <f t="shared" si="30"/>
         <v>84</v>
       </c>
       <c r="AJ70" s="1">
-        <f>AI70*AH70*G70</f>
+        <f t="shared" si="31"/>
         <v>252</v>
       </c>
       <c r="AK70" s="1">
@@ -9322,7 +9313,7 @@
         <v>70</v>
       </c>
       <c r="AM70" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.2</v>
       </c>
       <c r="AN70" s="1"/>
@@ -9369,7 +9360,7 @@
         <v>822</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="L71" s="1"/>
@@ -9378,25 +9369,25 @@
         <v>504</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" ref="O71:O74" si="23">E71/5</f>
+        <f t="shared" ref="O71:O74" si="35">E71/5</f>
         <v>164.2</v>
       </c>
       <c r="P71" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>973.79999999999973</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1008</v>
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1">
-        <f t="shared" ref="T71:T74" si="24">(F71+N71+Q71)/O71</f>
+        <f t="shared" ref="T71:T74" si="36">(F71+N71+Q71)/O71</f>
         <v>14.20828258221681</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" ref="U71:U74" si="25">(F71+N71)/O71</f>
+        <f t="shared" ref="U71:U74" si="37">(F71+N71)/O71</f>
         <v>8.0694275274056029</v>
       </c>
       <c r="V71" s="1">
@@ -9433,18 +9424,18 @@
         <v>53</v>
       </c>
       <c r="AG71" s="1">
-        <f>G71*P71</f>
+        <f t="shared" si="29"/>
         <v>243.44999999999993</v>
       </c>
       <c r="AH71" s="7">
         <v>12</v>
       </c>
       <c r="AI71" s="10">
-        <f>MROUND(P71, AH71*AK71)/AH71</f>
+        <f t="shared" si="30"/>
         <v>84</v>
       </c>
       <c r="AJ71" s="1">
-        <f>AI71*AH71*G71</f>
+        <f t="shared" si="31"/>
         <v>252</v>
       </c>
       <c r="AK71" s="1">
@@ -9454,7 +9445,7 @@
         <v>70</v>
       </c>
       <c r="AM71" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.2</v>
       </c>
       <c r="AN71" s="1"/>
@@ -9499,7 +9490,7 @@
         <v>27</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L72" s="1"/>
@@ -9508,22 +9499,22 @@
         <v>0</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>5.4</v>
       </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>18.5</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>18.5</v>
       </c>
       <c r="V72" s="1">
@@ -9556,22 +9547,22 @@
       <c r="AE72" s="1">
         <v>8.64</v>
       </c>
-      <c r="AF72" s="27" t="s">
+      <c r="AF72" s="26" t="s">
         <v>69</v>
       </c>
       <c r="AG72" s="1">
-        <f>G72*P72</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH72" s="7">
         <v>2.7</v>
       </c>
       <c r="AI72" s="10">
-        <f>MROUND(P72, AH72*AK72)/AH72</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <f>AI72*AH72*G72</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AK72" s="1">
@@ -9581,7 +9572,7 @@
         <v>126</v>
       </c>
       <c r="AM72" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AN72" s="1"/>
@@ -9628,7 +9619,7 @@
         <v>602.9</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-0.19999999999993179</v>
       </c>
       <c r="L73" s="1"/>
@@ -9637,25 +9628,25 @@
         <v>660</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>120.54</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>538.26000000000022</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>540</v>
       </c>
       <c r="R73" s="5"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>14.014435042309605</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>9.5345943255350907</v>
       </c>
       <c r="V73" s="1">
@@ -9690,18 +9681,18 @@
       </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1">
-        <f>G73*P73</f>
+        <f t="shared" si="29"/>
         <v>538.26000000000022</v>
       </c>
       <c r="AH73" s="7">
         <v>5</v>
       </c>
       <c r="AI73" s="10">
-        <f>MROUND(P73, AH73*AK73)/AH73</f>
+        <f t="shared" si="30"/>
         <v>108</v>
       </c>
       <c r="AJ73" s="1">
-        <f>AI73*AH73*G73</f>
+        <f t="shared" si="31"/>
         <v>540</v>
       </c>
       <c r="AK73" s="1">
@@ -9711,7 +9702,7 @@
         <v>84</v>
       </c>
       <c r="AM73" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="AN73" s="1"/>
@@ -9758,7 +9749,7 @@
         <v>561</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="L74" s="1"/>
@@ -9767,25 +9758,25 @@
         <v>0</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>113</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>386</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>264</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>12.920353982300885</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>10.584070796460177</v>
       </c>
       <c r="V74" s="1">
@@ -9822,18 +9813,18 @@
         <v>53</v>
       </c>
       <c r="AG74" s="1">
-        <f>G74*P74</f>
+        <f t="shared" si="29"/>
         <v>54.040000000000006</v>
       </c>
       <c r="AH74" s="7">
         <v>22</v>
       </c>
       <c r="AI74" s="10">
-        <f>MROUND(P74, AH74*AK74)/AH74</f>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="AJ74" s="1">
-        <f>AI74*AH74*G74</f>
+        <f t="shared" si="31"/>
         <v>36.96</v>
       </c>
       <c r="AK74" s="1">
@@ -9843,7 +9834,7 @@
         <v>84</v>
       </c>
       <c r="AM74" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN74" s="1"/>

--- a/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 млрсч пок зпф.xlsx
+++ b/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 млрсч пок зпф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\22,05,25 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398221EC-A278-42E6-B8AA-6359A786D4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD2B6F-1D58-4EA6-9CB2-93D5D05AF50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,13 +921,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX500"/>
+  <dimension ref="A1:AX499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,113 +1273,113 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4">
-        <f>SUM(E6:E500)</f>
+        <f>SUM(E6:E499)</f>
         <v>15648.1</v>
       </c>
       <c r="F5" s="4">
-        <f>SUM(F6:F500)</f>
+        <f>SUM(F6:F499)</f>
         <v>22163.8</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:R5" si="0">SUM(J6:J500)</f>
+        <f>SUM(J6:J499)</f>
         <v>15647</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(K6:K499)</f>
         <v>1.1000000000000796</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(L6:L499)</f>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(M6:M499)</f>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(N6:N499)</f>
         <v>7028.6</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O6:O499)</f>
         <v>3129.619999999999</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(P6:P499)</f>
         <v>15469.999999999996</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(Q6:Q499)</f>
         <v>15484.8</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(R6:R499)</f>
         <v>0</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="4">
-        <f t="shared" ref="V5:AE5" si="1">SUM(V6:V500)</f>
+        <f>SUM(V6:V499)</f>
         <v>2918.8</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(W6:W499)</f>
         <v>2608.2600000000007</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(X6:X499)</f>
         <v>2954.3999999999992</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(Y6:Y499)</f>
         <v>3075.38</v>
       </c>
       <c r="Z5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(Z6:Z499)</f>
         <v>3074.4500000000003</v>
       </c>
       <c r="AA5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(AA6:AA499)</f>
         <v>3486.2599999999993</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(AB6:AB499)</f>
         <v>3348.1199999999994</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(AC6:AC499)</f>
         <v>3026.3199999999993</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(AD6:AD499)</f>
         <v>3245.6599999999994</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(AE6:AE499)</f>
         <v>3210.1200000000008</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="4">
-        <f>SUM(AG6:AG500)</f>
+        <f>SUM(AG6:AG499)</f>
         <v>6314.2199999999984</v>
       </c>
       <c r="AH5" s="7"/>
       <c r="AI5" s="12">
-        <f>SUM(AI6:AI500)</f>
+        <f>SUM(AI6:AI499)</f>
         <v>1650</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUM(AJ6:AJ500)</f>
+        <f>SUM(AJ6:AJ499)</f>
         <v>6335.76</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="12">
-        <f>SUM(AM6:AM500)</f>
+        <f>SUM(AM6:AM499)</f>
         <v>19.62301587301587</v>
       </c>
       <c r="AN5" s="1"/>
@@ -1426,7 +1426,7 @@
         <v>183</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K37" si="2">E6-J6</f>
+        <f t="shared" ref="K6:K37" si="0">E6-J6</f>
         <v>0</v>
       </c>
       <c r="L6" s="1"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="1"/>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:O70" si="3">E7/5</f>
+        <f t="shared" ref="O7:O70" si="1">E7/5</f>
         <v>0</v>
       </c>
       <c r="P7" s="5"/>
@@ -1574,11 +1574,11 @@
       <c r="R7" s="5"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="e">
-        <f t="shared" ref="T7:T70" si="4">(F7+N7+Q7)/O7</f>
+        <f t="shared" ref="T7:T70" si="2">(F7+N7+Q7)/O7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U7" s="1" t="e">
-        <f t="shared" ref="U7:U70" si="5">(F7+N7)/O7</f>
+        <f t="shared" ref="U7:U70" si="3">(F7+N7)/O7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V7" s="1">
@@ -1683,7 +1683,7 @@
         <v>293</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="1"/>
@@ -1692,11 +1692,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>58.6</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" ref="P7:P9" si="6">14*O8-N8-F8</f>
+        <f t="shared" ref="P8:P9" si="4">14*O8-N8-F8</f>
         <v>359.4</v>
       </c>
       <c r="Q8" s="5">
@@ -1706,11 +1706,11 @@
       <c r="R8" s="5"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.600682593856655</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.8668941979522184</v>
       </c>
       <c r="V8" s="1">
@@ -1813,7 +1813,7 @@
         <v>243</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="1"/>
@@ -1822,11 +1822,11 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48.6</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>315.39999999999998</v>
       </c>
       <c r="Q9" s="5">
@@ -1836,11 +1836,11 @@
       <c r="R9" s="5"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.423868312757202</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.5102880658436213</v>
       </c>
       <c r="V9" s="1">
@@ -1935,14 +1935,14 @@
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10" s="23"/>
@@ -1950,11 +1950,11 @@
       <c r="R10" s="23"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U10" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V10" s="21">
@@ -2047,7 +2047,7 @@
         <v>494</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="L11" s="1"/>
@@ -2056,11 +2056,11 @@
         <v>168</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>96.4</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11:P13" si="7">14*O11-N11-F11</f>
+        <f t="shared" ref="P11:P13" si="5">14*O11-N11-F11</f>
         <v>382.60000000000014</v>
       </c>
       <c r="Q11" s="5">
@@ -2070,11 +2070,11 @@
       <c r="R11" s="5"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.516597510373444</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10.031120331950207</v>
       </c>
       <c r="V11" s="1">
@@ -2179,7 +2179,7 @@
         <v>275</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12" s="1"/>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="P12" s="5">
@@ -2202,11 +2202,11 @@
       <c r="R12" s="5"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.436363636363636</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.2727272727272729</v>
       </c>
       <c r="V12" s="1">
@@ -2309,7 +2309,7 @@
         <v>530</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" s="1"/>
@@ -2318,11 +2318,11 @@
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>611</v>
       </c>
       <c r="Q13" s="5">
@@ -2332,11 +2332,11 @@
       <c r="R13" s="5"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.575471698113208</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.2358490566037741</v>
       </c>
       <c r="V13" s="1">
@@ -2441,14 +2441,14 @@
         <v>59</v>
       </c>
       <c r="K14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P14" s="16"/>
@@ -2456,11 +2456,11 @@
       <c r="R14" s="16"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="U14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17.399999999999999</v>
       </c>
       <c r="V14" s="14">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="23"/>
@@ -2552,11 +2552,11 @@
       <c r="R15" s="23"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V15" s="21">
@@ -2639,14 +2639,14 @@
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="23"/>
@@ -2654,11 +2654,11 @@
       <c r="R16" s="23"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U16" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="21">
@@ -2741,14 +2741,14 @@
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="23"/>
@@ -2756,11 +2756,11 @@
       <c r="R17" s="23"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U17" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V17" s="21">
@@ -2843,14 +2843,14 @@
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="23"/>
@@ -2858,11 +2858,11 @@
       <c r="R18" s="23"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U18" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V18" s="21">
@@ -2955,7 +2955,7 @@
         <v>471</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="L19" s="1"/>
@@ -2964,7 +2964,7 @@
         <v>336</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>93.6</v>
       </c>
       <c r="P19" s="5">
@@ -2978,11 +2978,11 @@
       <c r="R19" s="5"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.711538461538462</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.7371794871794872</v>
       </c>
       <c r="V19" s="1">
@@ -3077,14 +3077,14 @@
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P20" s="23"/>
@@ -3092,11 +3092,11 @@
       <c r="R20" s="23"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U20" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V20" s="21">
@@ -3183,14 +3183,14 @@
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P21" s="16"/>
@@ -3198,11 +3198,11 @@
       <c r="R21" s="16"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U21" s="14" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V21" s="14">
@@ -3287,7 +3287,7 @@
         <v>180.6</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.70000000000001705</v>
       </c>
       <c r="L22" s="1"/>
@@ -3296,11 +3296,11 @@
         <v>51.8</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36.260000000000005</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" ref="P22:P25" si="8">14*O22-N22-F22</f>
+        <f t="shared" ref="P22" si="6">14*O22-N22-F22</f>
         <v>333.74000000000012</v>
       </c>
       <c r="Q22" s="5">
@@ -3310,11 +3310,11 @@
       <c r="R22" s="5"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.367346938775508</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.7959183673469372</v>
       </c>
       <c r="V22" s="1">
@@ -3417,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="1"/>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="P23" s="5"/>
@@ -3437,11 +3437,11 @@
       <c r="R23" s="5"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>131.66666666666669</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>131.66666666666669</v>
       </c>
       <c r="V23" s="1">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="1"/>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P24" s="5"/>
@@ -3560,11 +3560,11 @@
       <c r="R24" s="5"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="1">
@@ -3669,7 +3669,7 @@
         <v>38.5</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="1"/>
@@ -3678,7 +3678,7 @@
         <v>66</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
       <c r="P25" s="5"/>
@@ -3689,11 +3689,11 @@
       <c r="R25" s="5"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="V25" s="1">
@@ -3788,14 +3788,14 @@
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P26" s="23"/>
@@ -3803,11 +3803,11 @@
       <c r="R26" s="23"/>
       <c r="S26" s="21"/>
       <c r="T26" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V26" s="21">
@@ -3900,7 +3900,7 @@
         <v>72</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="1"/>
@@ -3909,11 +3909,11 @@
         <v>84</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" ref="P27:P28" si="9">14*O27-N27-F27</f>
+        <f t="shared" ref="P27:P28" si="7">14*O27-N27-F27</f>
         <v>50.599999999999994</v>
       </c>
       <c r="Q27" s="5">
@@ -3923,11 +3923,11 @@
       <c r="R27" s="5"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.402777777777777</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10.486111111111111</v>
       </c>
       <c r="V27" s="1">
@@ -4030,7 +4030,7 @@
         <v>685</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L28" s="1"/>
@@ -4039,11 +4039,11 @@
         <v>252</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>138.19999999999999</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1135.7999999999997</v>
       </c>
       <c r="Q28" s="5">
@@ -4053,11 +4053,11 @@
       <c r="R28" s="5"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.290882778581766</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.7814761215629531</v>
       </c>
       <c r="V28" s="1">
@@ -4152,14 +4152,14 @@
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P29" s="23"/>
@@ -4167,11 +4167,11 @@
       <c r="R29" s="23"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="21">
@@ -4254,14 +4254,14 @@
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P30" s="23"/>
@@ -4269,11 +4269,11 @@
       <c r="R30" s="23"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="21">
@@ -4366,7 +4366,7 @@
         <v>358.8</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="L31" s="1"/>
@@ -4375,11 +4375,11 @@
         <v>288</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" ref="P31:P33" si="10">14*O31-N31-F31</f>
+        <f t="shared" ref="P31:P33" si="8">14*O31-N31-F31</f>
         <v>102</v>
       </c>
       <c r="Q31" s="5">
@@ -4389,11 +4389,11 @@
       <c r="R31" s="5"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.583333333333334</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.583333333333334</v>
       </c>
       <c r="V31" s="1">
@@ -4496,7 +4496,7 @@
         <v>521</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L32" s="1"/>
@@ -4505,11 +4505,11 @@
         <v>168</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>106.6</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>433.39999999999986</v>
       </c>
       <c r="Q32" s="5">
@@ -4519,11 +4519,11 @@
       <c r="R32" s="5"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.662288930581614</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.9343339587242028</v>
       </c>
       <c r="V32" s="1">
@@ -4626,7 +4626,7 @@
         <v>448</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L33" s="1"/>
@@ -4635,11 +4635,11 @@
         <v>168</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>413</v>
       </c>
       <c r="Q33" s="5">
@@ -4649,11 +4649,11 @@
       <c r="R33" s="5"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.163043478260869</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.5108695652173907</v>
       </c>
       <c r="V33" s="1">
@@ -4748,14 +4748,14 @@
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P34" s="23"/>
@@ -4763,11 +4763,11 @@
       <c r="R34" s="23"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V34" s="21">
@@ -4850,14 +4850,14 @@
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P35" s="23"/>
@@ -4865,11 +4865,11 @@
       <c r="R35" s="23"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="21">
@@ -4962,7 +4962,7 @@
         <v>69</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L36" s="1"/>
@@ -4971,25 +4971,25 @@
         <v>0</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" ref="P36:P42" si="11">14*O36-N36-F36</f>
+        <f t="shared" ref="P36:P42" si="9">14*O36-N36-F36</f>
         <v>105.20000000000002</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" ref="Q36:Q58" si="12">AH36*AI36</f>
+        <f t="shared" ref="Q36:Q58" si="10">AH36*AI36</f>
         <v>96</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.333333333333332</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.3768115942028984</v>
       </c>
       <c r="V36" s="1">
@@ -5024,18 +5024,18 @@
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1">
-        <f>G36*P36</f>
+        <f t="shared" ref="AG36:AG42" si="11">G36*P36</f>
         <v>73.64</v>
       </c>
       <c r="AH36" s="7">
         <v>8</v>
       </c>
       <c r="AI36" s="10">
-        <f>MROUND(P36, AH36*AK36)/AH36</f>
+        <f t="shared" ref="AI36:AI42" si="12">MROUND(P36, AH36*AK36)/AH36</f>
         <v>12</v>
       </c>
       <c r="AJ36" s="1">
-        <f>AI36*AH36*G36</f>
+        <f t="shared" ref="AJ36:AJ42" si="13">AI36*AH36*G36</f>
         <v>67.199999999999989</v>
       </c>
       <c r="AK36" s="1">
@@ -5045,7 +5045,7 @@
         <v>84</v>
       </c>
       <c r="AM36" s="10">
-        <f t="shared" ref="AM36:AM58" si="13">AI36/AL36</f>
+        <f t="shared" ref="AM36:AM58" si="14">AI36/AL36</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN36" s="1"/>
@@ -5092,7 +5092,7 @@
         <v>93</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L37" s="1"/>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18.600000000000001</v>
       </c>
       <c r="P37" s="5">
@@ -5109,17 +5109,17 @@
         <v>164.20000000000002</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.494623655913978</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.172043010752688</v>
       </c>
       <c r="V37" s="1">
@@ -5154,18 +5154,18 @@
       </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1">
-        <f>G37*P37</f>
+        <f t="shared" si="11"/>
         <v>114.94</v>
       </c>
       <c r="AH37" s="7">
         <v>8</v>
       </c>
       <c r="AI37" s="10">
-        <f>MROUND(P37, AH37*AK37)/AH37</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="AJ37" s="1">
-        <f>AI37*AH37*G37</f>
+        <f t="shared" si="13"/>
         <v>134.39999999999998</v>
       </c>
       <c r="AK37" s="1">
@@ -5175,7 +5175,7 @@
         <v>84</v>
       </c>
       <c r="AM37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN37" s="1"/>
@@ -5222,7 +5222,7 @@
         <v>110</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" ref="K38:K69" si="14">E38-J38</f>
+        <f t="shared" ref="K38:K69" si="15">E38-J38</f>
         <v>0</v>
       </c>
       <c r="L38" s="1"/>
@@ -5231,25 +5231,25 @@
         <v>96</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16.09090909090909</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11.727272727272727</v>
       </c>
       <c r="V38" s="1">
@@ -5284,18 +5284,18 @@
       </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1">
-        <f>G38*P38</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="AH38" s="7">
         <v>8</v>
       </c>
       <c r="AI38" s="10">
-        <f>MROUND(P38, AH38*AK38)/AH38</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AJ38" s="1">
-        <f>AI38*AH38*G38</f>
+        <f t="shared" si="13"/>
         <v>67.199999999999989</v>
       </c>
       <c r="AK38" s="1">
@@ -5305,7 +5305,7 @@
         <v>84</v>
       </c>
       <c r="AM38" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN38" s="1"/>
@@ -5352,7 +5352,7 @@
         <v>190</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="L39" s="1"/>
@@ -5361,25 +5361,25 @@
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37.6</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>139.39999999999998</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.48404255319149</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10.292553191489361</v>
       </c>
       <c r="V39" s="1">
@@ -5414,18 +5414,18 @@
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1">
-        <f>G39*P39</f>
+        <f t="shared" si="11"/>
         <v>97.579999999999984</v>
       </c>
       <c r="AH39" s="7">
         <v>10</v>
       </c>
       <c r="AI39" s="10">
-        <f>MROUND(P39, AH39*AK39)/AH39</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AJ39" s="1">
-        <f>AI39*AH39*G39</f>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="AK39" s="1">
@@ -5435,7 +5435,7 @@
         <v>84</v>
       </c>
       <c r="AM39" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN39" s="1"/>
@@ -5482,7 +5482,7 @@
         <v>114</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10</v>
       </c>
       <c r="L40" s="1"/>
@@ -5491,22 +5491,22 @@
         <v>192</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20.8</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23.413461538461537</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>23.413461538461537</v>
       </c>
       <c r="V40" s="1">
@@ -5541,18 +5541,18 @@
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1">
-        <f>G40*P40</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH40" s="7">
         <v>16</v>
       </c>
       <c r="AI40" s="10">
-        <f>MROUND(P40, AH40*AK40)/AH40</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <f>AI40*AH40*G40</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK40" s="1">
@@ -5562,7 +5562,7 @@
         <v>84</v>
       </c>
       <c r="AM40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN40" s="1"/>
@@ -5609,7 +5609,7 @@
         <v>78</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L41" s="1"/>
@@ -5618,25 +5618,25 @@
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>69.400000000000006</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17.243589743589745</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.5512820512820511</v>
       </c>
       <c r="V41" s="1">
@@ -5671,18 +5671,18 @@
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1">
-        <f>G41*P41</f>
+        <f t="shared" si="11"/>
         <v>48.58</v>
       </c>
       <c r="AH41" s="7">
         <v>10</v>
       </c>
       <c r="AI41" s="10">
-        <f>MROUND(P41, AH41*AK41)/AH41</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AJ41" s="1">
-        <f>AI41*AH41*G41</f>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="AK41" s="1">
@@ -5692,7 +5692,7 @@
         <v>84</v>
       </c>
       <c r="AM41" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN41" s="1"/>
@@ -5739,7 +5739,7 @@
         <v>205</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="L42" s="1"/>
@@ -5748,25 +5748,25 @@
         <v>120</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39.799999999999997</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>197.19999999999993</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="R42" s="5"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15.075376884422111</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.0452261306532673</v>
       </c>
       <c r="V42" s="1">
@@ -5801,18 +5801,18 @@
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1">
-        <f>G42*P42</f>
+        <f t="shared" si="11"/>
         <v>138.03999999999994</v>
       </c>
       <c r="AH42" s="7">
         <v>10</v>
       </c>
       <c r="AI42" s="10">
-        <f>MROUND(P42, AH42*AK42)/AH42</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="AJ42" s="1">
-        <f>AI42*AH42*G42</f>
+        <f t="shared" si="13"/>
         <v>168</v>
       </c>
       <c r="AK42" s="1">
@@ -5822,7 +5822,7 @@
         <v>84</v>
       </c>
       <c r="AM42" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN42" s="1"/>
@@ -5869,7 +5869,7 @@
         <v>61</v>
       </c>
       <c r="K43" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="L43" s="21"/>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
       <c r="P43" s="23"/>
@@ -5886,11 +5886,11 @@
       <c r="R43" s="23"/>
       <c r="S43" s="21"/>
       <c r="T43" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22.192982456140349</v>
       </c>
       <c r="U43" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22.192982456140349</v>
       </c>
       <c r="V43" s="21">
@@ -5983,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8</v>
       </c>
       <c r="L44" s="1"/>
@@ -5992,22 +5992,22 @@
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R44" s="5"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>47.65625</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>47.65625</v>
       </c>
       <c r="V44" s="1">
@@ -6044,18 +6044,18 @@
         <v>45</v>
       </c>
       <c r="AG44" s="1">
-        <f>G44*P44</f>
+        <f t="shared" ref="AG44:AG58" si="16">G44*P44</f>
         <v>0</v>
       </c>
       <c r="AH44" s="7">
         <v>10</v>
       </c>
       <c r="AI44" s="10">
-        <f>MROUND(P44, AH44*AK44)/AH44</f>
+        <f t="shared" ref="AI44:AI58" si="17">MROUND(P44, AH44*AK44)/AH44</f>
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <f>AI44*AH44*G44</f>
+        <f t="shared" ref="AJ44:AJ58" si="18">AI44*AH44*G44</f>
         <v>0</v>
       </c>
       <c r="AK44" s="1">
@@ -6065,7 +6065,7 @@
         <v>84</v>
       </c>
       <c r="AM44" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN44" s="1"/>
@@ -6112,7 +6112,7 @@
         <v>502</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="L45" s="1"/>
@@ -6121,22 +6121,22 @@
         <v>660</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R45" s="5"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.603960396039604</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14.603960396039604</v>
       </c>
       <c r="V45" s="1">
@@ -6173,18 +6173,18 @@
         <v>53</v>
       </c>
       <c r="AG45" s="1">
-        <f>G45*P45</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH45" s="7">
         <v>5</v>
       </c>
       <c r="AI45" s="10">
-        <f>MROUND(P45, AH45*AK45)/AH45</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="1">
-        <f>AI45*AH45*G45</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK45" s="1">
@@ -6194,7 +6194,7 @@
         <v>144</v>
       </c>
       <c r="AM45" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN45" s="1"/>
@@ -6241,7 +6241,7 @@
         <v>159</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L46" s="1"/>
@@ -6250,22 +6250,22 @@
         <v>0</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>31.8</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.113207547169811</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13.113207547169811</v>
       </c>
       <c r="V46" s="1">
@@ -6300,18 +6300,18 @@
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1">
-        <f>G46*P46</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH46" s="7">
         <v>16</v>
       </c>
       <c r="AI46" s="10">
-        <f>MROUND(P46, AH46*AK46)/AH46</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <f>AI46*AH46*G46</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK46" s="1">
@@ -6321,7 +6321,7 @@
         <v>84</v>
       </c>
       <c r="AM46" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN46" s="1"/>
@@ -6368,7 +6368,7 @@
         <v>524</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L47" s="1"/>
@@ -6377,25 +6377,25 @@
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>104.8</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" ref="P44:P58" si="15">14*O47-N47-F47</f>
+        <f t="shared" ref="P47:P58" si="19">14*O47-N47-F47</f>
         <v>72.200000000000045</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.456106870229007</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13.311068702290077</v>
       </c>
       <c r="V47" s="1">
@@ -6432,18 +6432,18 @@
         <v>75</v>
       </c>
       <c r="AG47" s="1">
-        <f>G47*P47</f>
+        <f t="shared" si="16"/>
         <v>50.540000000000028</v>
       </c>
       <c r="AH47" s="7">
         <v>10</v>
       </c>
       <c r="AI47" s="10">
-        <f>MROUND(P47, AH47*AK47)/AH47</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="AJ47" s="1">
-        <f>AI47*AH47*G47</f>
+        <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="AK47" s="1">
@@ -6453,7 +6453,7 @@
         <v>84</v>
       </c>
       <c r="AM47" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN47" s="1"/>
@@ -6500,7 +6500,7 @@
         <v>188</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L48" s="1"/>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37.6</v>
       </c>
       <c r="P48" s="5">
@@ -6517,17 +6517,17 @@
         <v>326.8</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>384</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.521276595744681</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.3085106382978724</v>
       </c>
       <c r="V48" s="1">
@@ -6562,18 +6562,18 @@
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1">
-        <f>G48*P48</f>
+        <f t="shared" si="16"/>
         <v>130.72</v>
       </c>
       <c r="AH48" s="7">
         <v>16</v>
       </c>
       <c r="AI48" s="10">
-        <f>MROUND(P48, AH48*AK48)/AH48</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="AJ48" s="1">
-        <f>AI48*AH48*G48</f>
+        <f t="shared" si="18"/>
         <v>153.60000000000002</v>
       </c>
       <c r="AK48" s="1">
@@ -6583,7 +6583,7 @@
         <v>84</v>
       </c>
       <c r="AM48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN48" s="1"/>
@@ -6630,7 +6630,7 @@
         <v>918</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="L49" s="1"/>
@@ -6639,25 +6639,25 @@
         <v>0</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>869</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>840</v>
       </c>
       <c r="R49" s="5"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.842391304347826</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.2771739130434785</v>
       </c>
       <c r="V49" s="1">
@@ -6694,18 +6694,18 @@
         <v>75</v>
       </c>
       <c r="AG49" s="1">
-        <f>G49*P49</f>
+        <f t="shared" si="16"/>
         <v>608.29999999999995</v>
       </c>
       <c r="AH49" s="7">
         <v>10</v>
       </c>
       <c r="AI49" s="10">
-        <f>MROUND(P49, AH49*AK49)/AH49</f>
+        <f t="shared" si="17"/>
         <v>84</v>
       </c>
       <c r="AJ49" s="1">
-        <f>AI49*AH49*G49</f>
+        <f t="shared" si="18"/>
         <v>588</v>
       </c>
       <c r="AK49" s="1">
@@ -6715,7 +6715,7 @@
         <v>84</v>
       </c>
       <c r="AM49" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AN49" s="1"/>
@@ -6762,7 +6762,7 @@
         <v>243</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L50" s="1"/>
@@ -6771,25 +6771,25 @@
         <v>0</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48.6</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>310.39999999999998</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
       <c r="R50" s="5"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15.020576131687243</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.6131687242798352</v>
       </c>
       <c r="V50" s="1">
@@ -6824,18 +6824,18 @@
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1">
-        <f>G50*P50</f>
+        <f t="shared" si="16"/>
         <v>217.27999999999997</v>
       </c>
       <c r="AH50" s="7">
         <v>10</v>
       </c>
       <c r="AI50" s="10">
-        <f>MROUND(P50, AH50*AK50)/AH50</f>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="AJ50" s="1">
-        <f>AI50*AH50*G50</f>
+        <f t="shared" si="18"/>
         <v>251.99999999999997</v>
       </c>
       <c r="AK50" s="1">
@@ -6845,7 +6845,7 @@
         <v>84</v>
       </c>
       <c r="AM50" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="AN50" s="1"/>
@@ -6890,7 +6890,7 @@
         <v>16</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L51" s="1"/>
@@ -6899,22 +6899,22 @@
         <v>96</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R51" s="5"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
       <c r="V51" s="1">
@@ -6949,18 +6949,18 @@
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1">
-        <f>G51*P51</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH51" s="7">
         <v>8</v>
       </c>
       <c r="AI51" s="10">
-        <f>MROUND(P51, AH51*AK51)/AH51</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <f>AI51*AH51*G51</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK51" s="1">
@@ -6970,7 +6970,7 @@
         <v>84</v>
       </c>
       <c r="AM51" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN51" s="1"/>
@@ -7017,7 +7017,7 @@
         <v>21</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="L52" s="1"/>
@@ -7026,22 +7026,22 @@
         <v>96</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25.789473684210527</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25.789473684210527</v>
       </c>
       <c r="V52" s="1">
@@ -7076,18 +7076,18 @@
       </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1">
-        <f>G52*P52</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH52" s="7">
         <v>8</v>
       </c>
       <c r="AI52" s="10">
-        <f>MROUND(P52, AH52*AK52)/AH52</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <f>AI52*AH52*G52</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK52" s="1">
@@ -7097,7 +7097,7 @@
         <v>84</v>
       </c>
       <c r="AM52" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN52" s="1"/>
@@ -7142,7 +7142,7 @@
         <v>9</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L53" s="1"/>
@@ -7151,22 +7151,22 @@
         <v>0</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>28.333333333333332</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28.333333333333332</v>
       </c>
       <c r="V53" s="1">
@@ -7203,18 +7203,18 @@
         <v>69</v>
       </c>
       <c r="AG53" s="1">
-        <f>G53*P53</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH53" s="7">
         <v>8</v>
       </c>
       <c r="AI53" s="10">
-        <f>MROUND(P53, AH53*AK53)/AH53</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <f>AI53*AH53*G53</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK53" s="1">
@@ -7224,7 +7224,7 @@
         <v>84</v>
       </c>
       <c r="AM53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN53" s="1"/>
@@ -7271,7 +7271,7 @@
         <v>321</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L54" s="1"/>
@@ -7280,25 +7280,25 @@
         <v>288</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>64.2</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>135.80000000000007</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="R54" s="5"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.380062305295949</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11.884735202492211</v>
       </c>
       <c r="V54" s="1">
@@ -7335,18 +7335,18 @@
         <v>53</v>
       </c>
       <c r="AG54" s="1">
-        <f>G54*P54</f>
+        <f t="shared" si="16"/>
         <v>95.060000000000045</v>
       </c>
       <c r="AH54" s="7">
         <v>8</v>
       </c>
       <c r="AI54" s="10">
-        <f>MROUND(P54, AH54*AK54)/AH54</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="AJ54" s="1">
-        <f>AI54*AH54*G54</f>
+        <f t="shared" si="18"/>
         <v>67.199999999999989</v>
       </c>
       <c r="AK54" s="1">
@@ -7356,7 +7356,7 @@
         <v>84</v>
       </c>
       <c r="AM54" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN54" s="1"/>
@@ -7403,7 +7403,7 @@
         <v>144</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L55" s="1"/>
@@ -7412,22 +7412,22 @@
         <v>0</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.604166666666666</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.604166666666666</v>
       </c>
       <c r="V55" s="1">
@@ -7464,18 +7464,18 @@
         <v>53</v>
       </c>
       <c r="AG55" s="1">
-        <f>G55*P55</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH55" s="7">
         <v>8</v>
       </c>
       <c r="AI55" s="10">
-        <f>MROUND(P55, AH55*AK55)/AH55</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <f>AI55*AH55*G55</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK55" s="1">
@@ -7485,7 +7485,7 @@
         <v>84</v>
       </c>
       <c r="AM55" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN55" s="1"/>
@@ -7532,7 +7532,7 @@
         <v>189</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="L56" s="1"/>
@@ -7541,25 +7541,25 @@
         <v>192</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37.6</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>211.39999999999998</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.48404255319149</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.3776595744680851</v>
       </c>
       <c r="V56" s="1">
@@ -7596,18 +7596,18 @@
         <v>53</v>
       </c>
       <c r="AG56" s="1">
-        <f>G56*P56</f>
+        <f t="shared" si="16"/>
         <v>190.26</v>
       </c>
       <c r="AH56" s="7">
         <v>8</v>
       </c>
       <c r="AI56" s="10">
-        <f>MROUND(P56, AH56*AK56)/AH56</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="AJ56" s="1">
-        <f>AI56*AH56*G56</f>
+        <f t="shared" si="18"/>
         <v>172.8</v>
       </c>
       <c r="AK56" s="1">
@@ -7617,7 +7617,7 @@
         <v>84</v>
       </c>
       <c r="AM56" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AN56" s="1"/>
@@ -7664,7 +7664,7 @@
         <v>630</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L57" s="1"/>
@@ -7673,25 +7673,25 @@
         <v>480</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>329</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="R57" s="5"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.769841269841271</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11.388888888888889</v>
       </c>
       <c r="V57" s="1">
@@ -7728,18 +7728,18 @@
         <v>53</v>
       </c>
       <c r="AG57" s="1">
-        <f>G57*P57</f>
+        <f t="shared" si="16"/>
         <v>329</v>
       </c>
       <c r="AH57" s="7">
         <v>5</v>
       </c>
       <c r="AI57" s="10">
-        <f>MROUND(P57, AH57*AK57)/AH57</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="AJ57" s="1">
-        <f>AI57*AH57*G57</f>
+        <f t="shared" si="18"/>
         <v>300</v>
       </c>
       <c r="AK57" s="1">
@@ -7749,7 +7749,7 @@
         <v>144</v>
       </c>
       <c r="AM57" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="AN57" s="1"/>
@@ -7796,7 +7796,7 @@
         <v>631</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="L58" s="1"/>
@@ -7805,25 +7805,25 @@
         <v>660</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125.6</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>171.39999999999986</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="R58" s="5"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.068471337579618</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.635350318471339</v>
       </c>
       <c r="V58" s="1">
@@ -7860,18 +7860,18 @@
         <v>53</v>
       </c>
       <c r="AG58" s="1">
-        <f>G58*P58</f>
+        <f t="shared" si="16"/>
         <v>171.39999999999986</v>
       </c>
       <c r="AH58" s="7">
         <v>5</v>
       </c>
       <c r="AI58" s="10">
-        <f>MROUND(P58, AH58*AK58)/AH58</f>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="AJ58" s="1">
-        <f>AI58*AH58*G58</f>
+        <f t="shared" si="18"/>
         <v>180</v>
       </c>
       <c r="AK58" s="1">
@@ -7881,7 +7881,7 @@
         <v>84</v>
       </c>
       <c r="AM58" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="AN58" s="1"/>
@@ -7918,14 +7918,14 @@
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
       <c r="N59" s="21"/>
       <c r="O59" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P59" s="23"/>
@@ -7933,11 +7933,11 @@
       <c r="R59" s="23"/>
       <c r="S59" s="21"/>
       <c r="T59" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V59" s="21">
@@ -8020,14 +8020,14 @@
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
       <c r="N60" s="21"/>
       <c r="O60" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P60" s="23"/>
@@ -8035,11 +8035,11 @@
       <c r="R60" s="23"/>
       <c r="S60" s="21"/>
       <c r="T60" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U60" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V60" s="21">
@@ -8122,14 +8122,14 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
       <c r="O61" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P61" s="23"/>
@@ -8137,11 +8137,11 @@
       <c r="R61" s="23"/>
       <c r="S61" s="21"/>
       <c r="T61" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U61" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V61" s="21">
@@ -8234,7 +8234,7 @@
         <v>67</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-11</v>
       </c>
       <c r="L62" s="1"/>
@@ -8243,22 +8243,22 @@
         <v>0</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.2</v>
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5">
-        <f t="shared" ref="Q62:Q67" si="16">AH62*AI62</f>
+        <f t="shared" ref="Q62:Q67" si="20">AH62*AI62</f>
         <v>0</v>
       </c>
       <c r="R62" s="5"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.071428571428573</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>31.071428571428573</v>
       </c>
       <c r="V62" s="1">
@@ -8295,18 +8295,18 @@
         <v>111</v>
       </c>
       <c r="AG62" s="1">
-        <f>G62*P62</f>
+        <f t="shared" ref="AG62:AG67" si="21">G62*P62</f>
         <v>0</v>
       </c>
       <c r="AH62" s="7">
         <v>30</v>
       </c>
       <c r="AI62" s="10">
-        <f>MROUND(P62, AH62*AK62)/AH62</f>
+        <f t="shared" ref="AI62:AI67" si="22">MROUND(P62, AH62*AK62)/AH62</f>
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <f>AI62*AH62*G62</f>
+        <f t="shared" ref="AJ62:AJ67" si="23">AI62*AH62*G62</f>
         <v>0</v>
       </c>
       <c r="AK62" s="1">
@@ -8316,7 +8316,7 @@
         <v>126</v>
       </c>
       <c r="AM62" s="10">
-        <f t="shared" ref="AM62:AM67" si="17">AI62/AL62</f>
+        <f t="shared" ref="AM62:AM67" si="24">AI62/AL62</f>
         <v>0</v>
       </c>
       <c r="AN62" s="1"/>
@@ -8363,7 +8363,7 @@
         <v>737</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="L63" s="1"/>
@@ -8372,25 +8372,25 @@
         <v>336</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>147.19999999999999</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" ref="P62:P67" si="18">14*O63-N63-F63</f>
+        <f t="shared" ref="P63:P64" si="25">14*O63-N63-F63</f>
         <v>1201.7999999999997</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1176</v>
       </c>
       <c r="R63" s="5"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.824728260869566</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.835597826086957</v>
       </c>
       <c r="V63" s="1">
@@ -8427,18 +8427,18 @@
         <v>75</v>
       </c>
       <c r="AG63" s="1">
-        <f>G63*P63</f>
+        <f t="shared" si="21"/>
         <v>300.44999999999993</v>
       </c>
       <c r="AH63" s="7">
         <v>12</v>
       </c>
       <c r="AI63" s="10">
-        <f>MROUND(P63, AH63*AK63)/AH63</f>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
       <c r="AJ63" s="1">
-        <f>AI63*AH63*G63</f>
+        <f t="shared" si="23"/>
         <v>294</v>
       </c>
       <c r="AK63" s="1">
@@ -8448,7 +8448,7 @@
         <v>70</v>
       </c>
       <c r="AM63" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4</v>
       </c>
       <c r="AN63" s="1"/>
@@ -8495,7 +8495,7 @@
         <v>198</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L64" s="1"/>
@@ -8504,25 +8504,25 @@
         <v>168</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>197.39999999999998</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>168</v>
       </c>
       <c r="R64" s="5"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.257575757575758</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.0151515151515156</v>
       </c>
       <c r="V64" s="1">
@@ -8557,18 +8557,18 @@
       </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1">
-        <f>G64*P64</f>
+        <f t="shared" si="21"/>
         <v>49.349999999999994</v>
       </c>
       <c r="AH64" s="7">
         <v>12</v>
       </c>
       <c r="AI64" s="10">
-        <f>MROUND(P64, AH64*AK64)/AH64</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="AJ64" s="1">
-        <f>AI64*AH64*G64</f>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
       <c r="AK64" s="1">
@@ -8578,7 +8578,7 @@
         <v>70</v>
       </c>
       <c r="AM64" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="AN64" s="1"/>
@@ -8625,7 +8625,7 @@
         <v>738</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-12</v>
       </c>
       <c r="L65" s="1"/>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>145.19999999999999</v>
       </c>
       <c r="P65" s="5">
@@ -8642,17 +8642,17 @@
         <v>1253.5999999999999</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1176</v>
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.465564738292011</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.3663911845730032</v>
       </c>
       <c r="V65" s="1">
@@ -8687,18 +8687,18 @@
       </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1">
-        <f>G65*P65</f>
+        <f t="shared" si="21"/>
         <v>376.08</v>
       </c>
       <c r="AH65" s="7">
         <v>12</v>
       </c>
       <c r="AI65" s="10">
-        <f>MROUND(P65, AH65*AK65)/AH65</f>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
       <c r="AJ65" s="1">
-        <f>AI65*AH65*G65</f>
+        <f t="shared" si="23"/>
         <v>352.8</v>
       </c>
       <c r="AK65" s="1">
@@ -8708,7 +8708,7 @@
         <v>70</v>
       </c>
       <c r="AM65" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4</v>
       </c>
       <c r="AN65" s="1"/>
@@ -8755,7 +8755,7 @@
         <v>146.19999999999999</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.5999999999999943</v>
       </c>
       <c r="L66" s="1"/>
@@ -8764,22 +8764,22 @@
         <v>226.8</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27.72</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R66" s="5"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20.375180375180374</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20.375180375180374</v>
       </c>
       <c r="V66" s="1">
@@ -8814,18 +8814,18 @@
       </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1">
-        <f>G66*P66</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AH66" s="7">
         <v>1.8</v>
       </c>
       <c r="AI66" s="10">
-        <f>MROUND(P66, AH66*AK66)/AH66</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <f>AI66*AH66*G66</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AK66" s="1">
@@ -8835,7 +8835,7 @@
         <v>234</v>
       </c>
       <c r="AM66" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AN66" s="1"/>
@@ -8882,7 +8882,7 @@
         <v>622</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="L67" s="1"/>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123.8</v>
       </c>
       <c r="P67" s="5">
@@ -8899,17 +8899,17 @@
         <v>1082.3999999999999</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1008</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.399030694668822</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.2568659127625201</v>
       </c>
       <c r="V67" s="1">
@@ -8944,18 +8944,18 @@
       </c>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1">
-        <f>G67*P67</f>
+        <f t="shared" si="21"/>
         <v>324.71999999999997</v>
       </c>
       <c r="AH67" s="7">
         <v>12</v>
       </c>
       <c r="AI67" s="10">
-        <f>MROUND(P67, AH67*AK67)/AH67</f>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AJ67" s="1">
-        <f>AI67*AH67*G67</f>
+        <f t="shared" si="23"/>
         <v>302.39999999999998</v>
       </c>
       <c r="AK67" s="1">
@@ -8965,7 +8965,7 @@
         <v>70</v>
       </c>
       <c r="AM67" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2</v>
       </c>
       <c r="AN67" s="1"/>
@@ -9002,14 +9002,14 @@
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
       <c r="O68" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P68" s="23"/>
@@ -9017,11 +9017,11 @@
       <c r="R68" s="23"/>
       <c r="S68" s="21"/>
       <c r="T68" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U68" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V68" s="21">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="L69" s="1"/>
@@ -9119,22 +9119,22 @@
         <v>0</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5">
-        <f t="shared" ref="Q69:Q74" si="19">AH69*AI69</f>
+        <f t="shared" ref="Q69:Q74" si="26">AH69*AI69</f>
         <v>0</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17.399999999999999</v>
       </c>
       <c r="V69" s="1">
@@ -9171,18 +9171,18 @@
         <v>120</v>
       </c>
       <c r="AG69" s="1">
-        <f>G69*P69</f>
+        <f t="shared" ref="AG69:AG74" si="27">G69*P69</f>
         <v>0</v>
       </c>
       <c r="AH69" s="7">
         <v>8</v>
       </c>
       <c r="AI69" s="10">
-        <f>MROUND(P69, AH69*AK69)/AH69</f>
+        <f t="shared" ref="AI69:AI74" si="28">MROUND(P69, AH69*AK69)/AH69</f>
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <f>AI69*AH69*G69</f>
+        <f t="shared" ref="AJ69:AJ74" si="29">AI69*AH69*G69</f>
         <v>0</v>
       </c>
       <c r="AK69" s="1">
@@ -9192,7 +9192,7 @@
         <v>70</v>
       </c>
       <c r="AM69" s="10">
-        <f t="shared" ref="AM69:AM74" si="20">AI69/AL69</f>
+        <f t="shared" ref="AM69:AM74" si="30">AI69/AL69</f>
         <v>0</v>
       </c>
       <c r="AN69" s="1"/>
@@ -9239,7 +9239,7 @@
         <v>816</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" ref="K70:K74" si="21">E70-J70</f>
+        <f t="shared" ref="K70:K74" si="31">E70-J70</f>
         <v>6</v>
       </c>
       <c r="L70" s="1"/>
@@ -9248,25 +9248,25 @@
         <v>504</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>164.4</v>
       </c>
       <c r="P70" s="5">
-        <f t="shared" ref="P69:P74" si="22">14*O70-N70-F70</f>
+        <f t="shared" ref="P70:P74" si="32">14*O70-N70-F70</f>
         <v>972.59999999999991</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1008</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.215328467153284</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.0839416058394153</v>
       </c>
       <c r="V70" s="1">
@@ -9301,18 +9301,18 @@
       </c>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1">
-        <f>G70*P70</f>
+        <f t="shared" si="27"/>
         <v>243.14999999999998</v>
       </c>
       <c r="AH70" s="7">
         <v>12</v>
       </c>
       <c r="AI70" s="10">
-        <f>MROUND(P70, AH70*AK70)/AH70</f>
+        <f t="shared" si="28"/>
         <v>84</v>
       </c>
       <c r="AJ70" s="1">
-        <f>AI70*AH70*G70</f>
+        <f t="shared" si="29"/>
         <v>252</v>
       </c>
       <c r="AK70" s="1">
@@ -9322,7 +9322,7 @@
         <v>70</v>
       </c>
       <c r="AM70" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
       <c r="AN70" s="1"/>
@@ -9369,7 +9369,7 @@
         <v>822</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="L71" s="1"/>
@@ -9378,25 +9378,25 @@
         <v>504</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" ref="O71:O74" si="23">E71/5</f>
+        <f t="shared" ref="O71:O74" si="33">E71/5</f>
         <v>164.2</v>
       </c>
       <c r="P71" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>973.79999999999973</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1008</v>
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1">
-        <f t="shared" ref="T71:T74" si="24">(F71+N71+Q71)/O71</f>
+        <f t="shared" ref="T71:T74" si="34">(F71+N71+Q71)/O71</f>
         <v>14.20828258221681</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" ref="U71:U74" si="25">(F71+N71)/O71</f>
+        <f t="shared" ref="U71:U74" si="35">(F71+N71)/O71</f>
         <v>8.0694275274056029</v>
       </c>
       <c r="V71" s="1">
@@ -9433,18 +9433,18 @@
         <v>53</v>
       </c>
       <c r="AG71" s="1">
-        <f>G71*P71</f>
+        <f t="shared" si="27"/>
         <v>243.44999999999993</v>
       </c>
       <c r="AH71" s="7">
         <v>12</v>
       </c>
       <c r="AI71" s="10">
-        <f>MROUND(P71, AH71*AK71)/AH71</f>
+        <f t="shared" si="28"/>
         <v>84</v>
       </c>
       <c r="AJ71" s="1">
-        <f>AI71*AH71*G71</f>
+        <f t="shared" si="29"/>
         <v>252</v>
       </c>
       <c r="AK71" s="1">
@@ -9454,7 +9454,7 @@
         <v>70</v>
       </c>
       <c r="AM71" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
       <c r="AN71" s="1"/>
@@ -9499,7 +9499,7 @@
         <v>27</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L72" s="1"/>
@@ -9508,22 +9508,22 @@
         <v>0</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>5.4</v>
       </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>18.5</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>18.5</v>
       </c>
       <c r="V72" s="1">
@@ -9560,18 +9560,18 @@
         <v>69</v>
       </c>
       <c r="AG72" s="1">
-        <f>G72*P72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH72" s="7">
         <v>2.7</v>
       </c>
       <c r="AI72" s="10">
-        <f>MROUND(P72, AH72*AK72)/AH72</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <f>AI72*AH72*G72</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK72" s="1">
@@ -9581,7 +9581,7 @@
         <v>126</v>
       </c>
       <c r="AM72" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN72" s="1"/>
@@ -9628,7 +9628,7 @@
         <v>602.9</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>-0.19999999999993179</v>
       </c>
       <c r="L73" s="1"/>
@@ -9637,25 +9637,25 @@
         <v>660</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>120.54</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>538.26000000000022</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>540</v>
       </c>
       <c r="R73" s="5"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>14.014435042309605</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>9.5345943255350907</v>
       </c>
       <c r="V73" s="1">
@@ -9690,18 +9690,18 @@
       </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1">
-        <f>G73*P73</f>
+        <f t="shared" si="27"/>
         <v>538.26000000000022</v>
       </c>
       <c r="AH73" s="7">
         <v>5</v>
       </c>
       <c r="AI73" s="10">
-        <f>MROUND(P73, AH73*AK73)/AH73</f>
+        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="AJ73" s="1">
-        <f>AI73*AH73*G73</f>
+        <f t="shared" si="29"/>
         <v>540</v>
       </c>
       <c r="AK73" s="1">
@@ -9711,7 +9711,7 @@
         <v>84</v>
       </c>
       <c r="AM73" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="AN73" s="1"/>
@@ -9758,7 +9758,7 @@
         <v>561</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L74" s="1"/>
@@ -9767,25 +9767,25 @@
         <v>0</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>113</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>386</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>264</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>12.920353982300885</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>10.584070796460177</v>
       </c>
       <c r="V74" s="1">
@@ -9822,18 +9822,18 @@
         <v>53</v>
       </c>
       <c r="AG74" s="1">
-        <f>G74*P74</f>
+        <f t="shared" si="27"/>
         <v>54.040000000000006</v>
       </c>
       <c r="AH74" s="7">
         <v>22</v>
       </c>
       <c r="AI74" s="10">
-        <f>MROUND(P74, AH74*AK74)/AH74</f>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AJ74" s="1">
-        <f>AI74*AH74*G74</f>
+        <f t="shared" si="29"/>
         <v>36.96</v>
       </c>
       <c r="AK74" s="1">
@@ -9843,7 +9843,7 @@
         <v>84</v>
       </c>
       <c r="AM74" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN74" s="1"/>
@@ -31958,58 +31958,6 @@
       <c r="AW499" s="1"/>
       <c r="AX499" s="1"/>
     </row>
-    <row r="500" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A500" s="1"/>
-      <c r="B500" s="1"/>
-      <c r="C500" s="1"/>
-      <c r="D500" s="1"/>
-      <c r="E500" s="1"/>
-      <c r="F500" s="1"/>
-      <c r="G500" s="7"/>
-      <c r="H500" s="1"/>
-      <c r="I500" s="1"/>
-      <c r="J500" s="1"/>
-      <c r="K500" s="1"/>
-      <c r="L500" s="1"/>
-      <c r="M500" s="1"/>
-      <c r="N500" s="1"/>
-      <c r="O500" s="1"/>
-      <c r="P500" s="1"/>
-      <c r="Q500" s="1"/>
-      <c r="R500" s="1"/>
-      <c r="S500" s="1"/>
-      <c r="T500" s="1"/>
-      <c r="U500" s="1"/>
-      <c r="V500" s="1"/>
-      <c r="W500" s="1"/>
-      <c r="X500" s="1"/>
-      <c r="Y500" s="1"/>
-      <c r="Z500" s="1"/>
-      <c r="AA500" s="1"/>
-      <c r="AB500" s="1"/>
-      <c r="AC500" s="1"/>
-      <c r="AD500" s="1"/>
-      <c r="AE500" s="1"/>
-      <c r="AF500" s="1"/>
-      <c r="AG500" s="1"/>
-      <c r="AH500" s="7"/>
-      <c r="AI500" s="10"/>
-      <c r="AJ500" s="1"/>
-      <c r="AK500" s="1"/>
-      <c r="AL500" s="1"/>
-      <c r="AM500" s="10"/>
-      <c r="AN500" s="1"/>
-      <c r="AO500" s="1"/>
-      <c r="AP500" s="1"/>
-      <c r="AQ500" s="1"/>
-      <c r="AR500" s="1"/>
-      <c r="AS500" s="1"/>
-      <c r="AT500" s="1"/>
-      <c r="AU500" s="1"/>
-      <c r="AV500" s="1"/>
-      <c r="AW500" s="1"/>
-      <c r="AX500" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:AM74" xr:uid="{5B2419C6-E9D5-4F7B-A90F-A88DF4D40D80}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
